--- a/results_cnn_subnetwork_evaluation/pcc/cnn_validation_SubRCM_pcc_by_3d_spherical_gaussian_diffusion_sigma_0.1.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/cnn_validation_SubRCM_pcc_by_3d_spherical_gaussian_diffusion_sigma_0.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6629572D-1896-4B33-9A89-DAA0C3D030F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CF8327-E156-4B66-B610-7F24663CFBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gaussian_filtering_1.0" sheetId="1" r:id="rId1"/>
@@ -521,13 +521,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -561,7 +559,7 @@
         <v>0.85531810241854489</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -578,7 +576,7 @@
         <v>0.90623619884718321</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -595,7 +593,7 @@
         <v>0.85471974112785354</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -612,7 +610,7 @@
         <v>0.86756043951857542</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -629,7 +627,7 @@
         <v>0.93637102054968635</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -646,7 +644,7 @@
         <v>0.89555768839691974</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -663,7 +661,7 @@
         <v>0.84771076258596234</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -680,7 +678,7 @@
         <v>0.90523529573209738</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -697,7 +695,7 @@
         <v>0.95636228758576658</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -714,7 +712,7 @@
         <v>0.89502232137739279</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -731,7 +729,7 @@
         <v>0.8469783413717703</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -748,7 +746,7 @@
         <v>0.90506875649721974</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -765,7 +763,7 @@
         <v>0.89148754624988524</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -782,7 +780,7 @@
         <v>0.81566032919308484</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -799,7 +797,7 @@
         <v>0.87132383073178199</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -816,7 +814,7 @@
         <v>0.92437269704179104</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -833,7 +831,7 @@
         <v>0.88980033220995214</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -850,7 +848,7 @@
         <v>0.94235293149926425</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -867,7 +865,7 @@
         <v>0.91390314691550434</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -884,7 +882,7 @@
         <v>0.70674836509941275</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -901,7 +899,7 @@
         <v>0.88913842551374744</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -918,7 +916,7 @@
         <v>0.89576199542837975</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -935,7 +933,7 @@
         <v>0.91186155950166392</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -952,7 +950,7 @@
         <v>0.83447434370071072</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -969,7 +967,7 @@
         <v>0.84623643504021528</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -986,7 +984,7 @@
         <v>0.80097207883482091</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1003,7 +1001,7 @@
         <v>0.79790608332859592</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1020,7 +1018,7 @@
         <v>0.98672246502193528</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1037,7 +1035,7 @@
         <v>0.98850108687760385</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1054,7 +1052,7 @@
         <v>0.97039133646224474</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1071,7 +1069,7 @@
         <v>0.88499186482198566</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1102,13 +1100,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1142,7 +1138,7 @@
         <v>0.87044907909881741</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1159,7 +1155,7 @@
         <v>0.88455425298293267</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1176,7 +1172,7 @@
         <v>0.85571581345012537</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1193,7 +1189,7 @@
         <v>0.81790661189429215</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1210,7 +1206,7 @@
         <v>0.9277257709058766</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1227,7 +1223,7 @@
         <v>0.85270984065308841</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1244,7 +1240,7 @@
         <v>0.87022055256305753</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1261,7 +1257,7 @@
         <v>0.9276517294179174</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1278,7 +1274,7 @@
         <v>0.96287855522031407</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1295,7 +1291,7 @@
         <v>0.85802866487205753</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1308,7 @@
         <v>0.86401776191436963</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1329,7 +1325,7 @@
         <v>0.86611169031904767</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1346,7 +1342,7 @@
         <v>0.88433324807529434</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1363,7 +1359,7 @@
         <v>0.82329595766115804</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1380,7 +1376,7 @@
         <v>0.86008797451650454</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1397,7 +1393,7 @@
         <v>0.90981011587809346</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1414,7 +1410,7 @@
         <v>0.88285469251522986</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1431,7 +1427,7 @@
         <v>0.9397399182898043</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1448,7 +1444,7 @@
         <v>0.86504899872198293</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1465,7 +1461,7 @@
         <v>0.76408503391825533</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1482,7 +1478,7 @@
         <v>0.87883404131548204</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1499,7 +1495,7 @@
         <v>0.87093865865743214</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1516,7 +1512,7 @@
         <v>0.89905247639458641</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1533,7 +1529,7 @@
         <v>0.8505978872510559</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1550,7 +1546,7 @@
         <v>0.83606649545464096</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1567,7 +1563,7 @@
         <v>0.76054716534803501</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1584,7 +1580,7 @@
         <v>0.75818706198429586</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1601,7 +1597,7 @@
         <v>0.98912965145187903</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1618,7 +1614,7 @@
         <v>0.98229700544402421</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1635,7 +1631,7 @@
         <v>0.94232579687529106</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1652,7 +1648,7 @@
         <v>0.87517341676816485</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1683,13 +1679,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1706,7 +1700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1723,7 +1717,7 @@
         <v>0.87134456513517589</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1740,7 +1734,7 @@
         <v>0.84827988134562704</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1757,7 +1751,7 @@
         <v>0.81609606491584508</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1774,7 +1768,7 @@
         <v>0.82430788443416247</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1791,7 +1785,7 @@
         <v>0.91689327632193596</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1808,7 +1802,7 @@
         <v>0.82850428793914577</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1825,7 +1819,7 @@
         <v>0.85617188436823644</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1842,7 +1836,7 @@
         <v>0.90114181110611558</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1859,7 +1853,7 @@
         <v>0.94851785440990288</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1876,7 +1870,7 @@
         <v>0.89528947089209188</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1893,7 +1887,7 @@
         <v>0.83344379286824544</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1910,7 +1904,7 @@
         <v>0.85570950734284568</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1927,7 +1921,7 @@
         <v>0.87005284203202093</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1944,7 +1938,7 @@
         <v>0.77263449898309644</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1961,7 +1955,7 @@
         <v>0.85702155730332541</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1978,7 +1972,7 @@
         <v>0.84605303646627961</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1995,7 +1989,7 @@
         <v>0.83475169690844775</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2012,7 +2006,7 @@
         <v>0.92333365769836817</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2029,7 +2023,7 @@
         <v>0.87464200679426551</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2046,7 +2040,7 @@
         <v>0.70186116618580163</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2063,7 +2057,7 @@
         <v>0.86962311008184323</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2080,7 +2074,7 @@
         <v>0.85162691341607266</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2097,7 +2091,7 @@
         <v>0.84743977382643221</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2114,7 +2108,7 @@
         <v>0.78696705663834232</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2131,7 +2125,7 @@
         <v>0.85660824283042714</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2148,7 +2142,7 @@
         <v>0.75004158393211851</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2165,7 +2159,7 @@
         <v>0.78368937980879894</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2182,7 +2176,7 @@
         <v>0.98093928987230217</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2199,7 +2193,7 @@
         <v>0.97468974426294364</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2216,7 +2210,7 @@
         <v>0.94144883875705943</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2233,7 +2227,7 @@
         <v>0.85730415589590903</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2264,13 +2258,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2287,7 +2279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2304,7 +2296,7 @@
         <v>0.7910499204860495</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2321,7 +2313,7 @@
         <v>0.6731332154734776</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2338,7 +2330,7 @@
         <v>0.73957464847210819</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2355,7 +2347,7 @@
         <v>0.70783358656454287</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2372,7 +2364,7 @@
         <v>0.71772882281413997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2389,7 +2381,7 @@
         <v>0.66843525972628648</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2406,7 +2398,7 @@
         <v>0.70281144664826756</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2423,7 +2415,7 @@
         <v>0.82729600926780067</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2440,7 +2432,7 @@
         <v>0.84875989082794434</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2457,7 +2449,7 @@
         <v>0.67447337574077637</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2474,7 +2466,7 @@
         <v>0.67879021196828659</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2491,7 +2483,7 @@
         <v>0.65065747290788312</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2508,7 +2500,7 @@
         <v>0.69362223135438406</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2525,7 +2517,7 @@
         <v>0.61768608429461735</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2542,7 +2534,7 @@
         <v>0.6869147867626666</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2559,7 +2551,7 @@
         <v>0.71554778461089674</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2576,7 +2568,7 @@
         <v>0.75522050614234226</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2593,7 +2585,7 @@
         <v>0.82661673483331322</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2610,7 +2602,7 @@
         <v>0.70433713806439846</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2627,7 +2619,7 @@
         <v>0.65293037410432375</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2644,7 +2636,7 @@
         <v>0.71539247072055345</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2661,7 +2653,7 @@
         <v>0.68874935523050373</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2678,7 +2670,7 @@
         <v>0.66649740823256853</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2695,7 +2687,7 @@
         <v>0.60811287757279231</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2712,7 +2704,7 @@
         <v>0.77194390317952377</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2729,7 +2721,7 @@
         <v>0.73045087708341938</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2746,7 +2738,7 @@
         <v>0.62754080181409111</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2763,7 +2755,7 @@
         <v>0.88065404904684996</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2780,7 +2772,7 @@
         <v>0.81424944268614252</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2797,7 +2789,7 @@
         <v>0.95968633818321059</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2814,7 +2806,7 @@
         <v>0.72655656749380548</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2845,13 +2837,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2868,7 +2858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2885,7 +2875,7 @@
         <v>0.70445949854809886</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2902,7 +2892,7 @@
         <v>0.63611647570160623</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2919,7 +2909,7 @@
         <v>0.67964207192523818</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2936,7 +2926,7 @@
         <v>0.59744048501054769</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2953,7 +2943,7 @@
         <v>0.66210354693171125</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2970,7 +2960,7 @@
         <v>0.61943947782915265</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2987,7 +2977,7 @@
         <v>0.7571397417475596</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3004,7 +2994,7 @@
         <v>0.75527448121419605</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3021,7 +3011,7 @@
         <v>0.80868968055659762</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3038,7 +3028,7 @@
         <v>0.68004574155377095</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3055,7 +3045,7 @@
         <v>0.64443164976771428</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3072,7 +3062,7 @@
         <v>0.73631166078028287</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3089,7 +3079,7 @@
         <v>0.69716132768112382</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -3106,7 +3096,7 @@
         <v>0.61652295593797601</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -3123,7 +3113,7 @@
         <v>0.60495342403652153</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3140,7 +3130,7 @@
         <v>0.55454970601415454</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3157,7 +3147,7 @@
         <v>0.69401588330483166</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3174,7 +3164,7 @@
         <v>0.7497928506813617</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3191,7 +3181,7 @@
         <v>0.67212968814767948</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3208,7 +3198,7 @@
         <v>0.62977677216741779</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3225,7 +3215,7 @@
         <v>0.72122077201754109</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3242,7 +3232,7 @@
         <v>0.60168763998335417</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -3259,7 +3249,7 @@
         <v>0.63603624734039887</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -3276,7 +3266,7 @@
         <v>0.55026819413654615</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3293,7 +3283,7 @@
         <v>0.67607921171428309</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -3310,7 +3300,7 @@
         <v>0.59618868844795325</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3327,7 +3317,7 @@
         <v>0.65574559932868537</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3344,7 +3334,7 @@
         <v>0.74437228304785164</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3361,7 +3351,7 @@
         <v>0.74844015965382604</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -3378,7 +3368,7 @@
         <v>0.93543881916015226</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3395,7 +3385,7 @@
         <v>0.67884915781227095</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -3426,13 +3416,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3449,7 +3437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3466,7 +3454,7 @@
         <v>0.54573349106725444</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3483,7 +3471,7 @@
         <v>0.51294118346164397</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3500,7 +3488,7 @@
         <v>0.50808021322456332</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3517,7 +3505,7 @@
         <v>0.48795497184011538</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3534,7 +3522,7 @@
         <v>0.54183902948749041</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3551,7 +3539,7 @@
         <v>0.42511916197746907</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3568,7 +3556,7 @@
         <v>0.71170905136200702</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3585,7 +3573,7 @@
         <v>0.74687001816250431</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3602,7 +3590,7 @@
         <v>0.75398098670443958</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3619,7 +3607,7 @@
         <v>0.59090926347862771</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3636,7 +3624,7 @@
         <v>0.56983211804687595</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3653,7 +3641,7 @@
         <v>0.58053114134627359</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3670,7 +3658,7 @@
         <v>0.63051290548533312</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -3687,7 +3675,7 @@
         <v>0.48906818187339268</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -3704,7 +3692,7 @@
         <v>0.55765316629321404</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3721,7 +3709,7 @@
         <v>0.51671698985561687</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3738,7 +3726,7 @@
         <v>0.59961053572249312</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3755,7 +3743,7 @@
         <v>0.5925644737696274</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3772,7 +3760,7 @@
         <v>0.58857449152501329</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3789,7 +3777,7 @@
         <v>0.56717900666391197</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3806,7 +3794,7 @@
         <v>0.60696912908147038</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3823,7 +3811,7 @@
         <v>0.5244053656595411</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -3840,7 +3828,7 @@
         <v>0.51018458470122641</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -3857,7 +3845,7 @@
         <v>0.42674344004223558</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3874,7 +3862,7 @@
         <v>0.646542905216549</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -3891,7 +3879,7 @@
         <v>0.57621334263601698</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3908,7 +3896,7 @@
         <v>0.58841311151864828</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3925,7 +3913,7 @@
         <v>0.71809604775645242</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3942,7 +3930,7 @@
         <v>0.75480468453874594</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -3959,7 +3947,7 @@
         <v>0.90938401773830324</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3976,7 +3964,7 @@
         <v>0.59263790034123531</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -4007,13 +3995,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4030,7 +4016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4047,7 +4033,7 @@
         <v>0.4609321669182741</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4064,7 +4050,7 @@
         <v>0.37380490046715448</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4081,7 +4067,7 @@
         <v>0.4739179657812011</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4098,7 +4084,7 @@
         <v>0.28383859047647197</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -4115,7 +4101,7 @@
         <v>0.44627424472206928</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4132,7 +4118,7 @@
         <v>0.35483519509860367</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -4149,7 +4135,7 @@
         <v>0.55460904494676166</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4166,7 +4152,7 @@
         <v>0.53440709152563382</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -4183,7 +4169,7 @@
         <v>0.58857774325625345</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -4200,7 +4186,7 @@
         <v>0.44769414522653689</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -4217,7 +4203,7 @@
         <v>0.41565174514793862</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -4234,7 +4220,7 @@
         <v>0.43735757199254788</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -4251,7 +4237,7 @@
         <v>0.46386916612359391</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -4268,7 +4254,7 @@
         <v>0.36729853224066428</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -4285,7 +4271,7 @@
         <v>0.2697668994163796</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -4302,7 +4288,7 @@
         <v>0.40343330874803512</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -4319,7 +4305,7 @@
         <v>0.44718298072841439</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -4336,7 +4322,7 @@
         <v>0.45835339390022811</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -4353,7 +4339,7 @@
         <v>0.4903649552534618</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -4370,7 +4356,7 @@
         <v>0.38082768921636267</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4387,7 +4373,7 @@
         <v>0.50983434750252665</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -4404,7 +4390,7 @@
         <v>0.31425133405109051</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -4421,7 +4407,7 @@
         <v>0.43058344081256472</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -4438,7 +4424,7 @@
         <v>0.34560500857788612</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -4455,7 +4441,7 @@
         <v>0.48948957396561832</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -4472,7 +4458,7 @@
         <v>0.34645145215553741</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -4489,7 +4475,7 @@
         <v>0.38119153323065802</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -4506,7 +4492,7 @@
         <v>0.39967650467084131</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -4523,7 +4509,7 @@
         <v>0.71257020264230686</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -4540,7 +4526,7 @@
         <v>0.78606414998357832</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -4557,7 +4543,7 @@
         <v>0.44562382929263988</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
